--- a/03. SourceCode/BKI_QLTTQuocAnh/Template/IMPORT_HOP_DONG.xlsx
+++ b/03. SourceCode/BKI_QLTTQuocAnh/Template/IMPORT_HOP_DONG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuyen\Desktop\01. He sinh thai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\_dvmd\trunk\03. SourceCode\BKI_QLTTQuocAnh\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -985,40 +985,40 @@
     <t>HN_HD2</t>
   </si>
   <si>
-    <t>STT*</t>
-  </si>
-  <si>
-    <t>MA_NHAN_VIEN*</t>
-  </si>
-  <si>
-    <t>MA_HD*</t>
-  </si>
-  <si>
-    <t>MA_LOAI_HD*</t>
-  </si>
-  <si>
-    <t>MA_LOAI_LD*</t>
-  </si>
-  <si>
-    <t>MA_LCD*</t>
-  </si>
-  <si>
-    <t>MUC_LCD*</t>
-  </si>
-  <si>
-    <t>NGAY_BAT_DAU*</t>
-  </si>
-  <si>
-    <t>MA_DON_VI*</t>
-  </si>
-  <si>
-    <t>MA_CHUC_VU*</t>
-  </si>
-  <si>
     <t>20160401X</t>
   </si>
   <si>
     <t>20160402X</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>MA_NHAN_VIEN</t>
+  </si>
+  <si>
+    <t>MA_HD</t>
+  </si>
+  <si>
+    <t>MA_LOAI_HD</t>
+  </si>
+  <si>
+    <t>MA_LOAI_LD</t>
+  </si>
+  <si>
+    <t>MA_LCD</t>
+  </si>
+  <si>
+    <t>MUC_LCD</t>
+  </si>
+  <si>
+    <t>NGAY_BAT_DAU</t>
+  </si>
+  <si>
+    <t>MA_DON_VI</t>
+  </si>
+  <si>
+    <t>MA_CHUC_VU</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1460,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1477,35 +1477,34 @@
     <col min="10" max="10" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="0" style="4" hidden="1"/>
+    <col min="13" max="18" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="4" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>0</v>
@@ -1514,10 +1513,10 @@
         <v>277</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1525,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
@@ -1563,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>278</v>
